--- a/data/datasets/roster_stanford.xlsx
+++ b/data/datasets/roster_stanford.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEE34A6-E785-4A3B-92D3-788586362577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E52150-3A79-4432-9522-F916BC7C8BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7338,8 +7338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8596,7 +8596,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>97</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>97</v>

--- a/data/datasets/roster_stanford.xlsx
+++ b/data/datasets/roster_stanford.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166FC7FC-1AE7-4F9A-896E-96017F13883A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8958708-633A-4621-A0AD-D2FB516A0000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7567,8 +7567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9424,10 +9424,10 @@
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>125</v>

--- a/data/datasets/roster_stanford.xlsx
+++ b/data/datasets/roster_stanford.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8958708-633A-4621-A0AD-D2FB516A0000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE597A1-AB20-42E1-9C2C-F6AB95A72968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="338">
   <si>
     <t>first_name</t>
   </si>
@@ -1030,6 +1030,12 @@
   </si>
   <si>
     <t>overall_end</t>
+  </si>
+  <si>
+    <t>Rig</t>
+  </si>
+  <si>
+    <t>Rig Bon</t>
   </si>
 </sst>
 </file>
@@ -7567,9 +7573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8222,10 +8226,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>336</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>337</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>29</v>

--- a/data/datasets/roster_stanford.xlsx
+++ b/data/datasets/roster_stanford.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE597A1-AB20-42E1-9C2C-F6AB95A72968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B376987B-5869-44A6-9327-5221DD619CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1160,7 +1160,13 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Frame2" displayName="Frame2" ref="A1:L86" totalsRowShown="0">
-  <autoFilter ref="A1:L86" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <autoFilter ref="A1:L86" xr:uid="{00000000-0009-0000-0100-000003000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="WR"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="first_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="last_name"/>
@@ -7573,7 +7579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7629,7 +7637,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -7664,7 +7672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -7699,7 +7707,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>218</v>
       </c>
@@ -7734,7 +7742,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -7769,7 +7777,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -7804,7 +7812,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -7839,7 +7847,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>284</v>
       </c>
@@ -7874,7 +7882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>286</v>
       </c>
@@ -7909,7 +7917,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>288</v>
       </c>
@@ -8224,7 +8232,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>336</v>
       </c>
@@ -8259,7 +8267,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>249</v>
       </c>
@@ -8294,7 +8302,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>297</v>
       </c>
@@ -8329,7 +8337,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>299</v>
       </c>
@@ -8364,7 +8372,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -8399,7 +8407,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>111</v>
       </c>
@@ -8434,7 +8442,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>255</v>
       </c>
@@ -8469,7 +8477,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
@@ -8504,7 +8512,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -8539,7 +8547,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
@@ -8574,7 +8582,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>99</v>
       </c>
@@ -8609,7 +8617,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>114</v>
       </c>
@@ -8644,7 +8652,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>303</v>
       </c>
@@ -8679,7 +8687,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>107</v>
       </c>
@@ -8714,7 +8722,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -8749,7 +8757,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>115</v>
       </c>
@@ -8784,7 +8792,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>97</v>
       </c>
@@ -8819,7 +8827,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>202</v>
       </c>
@@ -8854,7 +8862,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
@@ -8889,7 +8897,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>119</v>
       </c>
@@ -8924,7 +8932,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>305</v>
       </c>
@@ -8959,7 +8967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>157</v>
       </c>
@@ -8994,7 +9002,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>164</v>
       </c>
@@ -9029,7 +9037,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>257</v>
       </c>
@@ -9064,7 +9072,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>259</v>
       </c>
@@ -9099,7 +9107,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>315</v>
       </c>
@@ -9134,7 +9142,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>132</v>
       </c>
@@ -9169,7 +9177,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>140</v>
       </c>
@@ -9204,7 +9212,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>309</v>
       </c>
@@ -9239,7 +9247,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>311</v>
       </c>
@@ -9274,7 +9282,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>313</v>
       </c>
@@ -9309,7 +9317,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>128</v>
       </c>
@@ -9344,7 +9352,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>151</v>
       </c>
@@ -9379,7 +9387,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>144</v>
       </c>
@@ -9414,7 +9422,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>261</v>
       </c>
@@ -9449,7 +9457,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>265</v>
       </c>
@@ -9484,7 +9492,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>159</v>
       </c>
@@ -9519,7 +9527,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>166</v>
       </c>
@@ -9554,7 +9562,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>319</v>
       </c>
@@ -9589,7 +9597,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>267</v>
       </c>
@@ -9624,7 +9632,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>88</v>
       </c>
@@ -9659,7 +9667,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>270</v>
       </c>
@@ -9694,7 +9702,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
@@ -9729,7 +9737,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>185</v>
       </c>
@@ -9764,7 +9772,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
@@ -9799,7 +9807,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>317</v>
       </c>
@@ -9834,7 +9842,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>204</v>
       </c>
@@ -9869,7 +9877,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>200</v>
       </c>
@@ -9904,7 +9912,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>274</v>
       </c>
@@ -9939,7 +9947,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>276</v>
       </c>
@@ -9974,7 +9982,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>197</v>
       </c>
@@ -10009,7 +10017,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>185</v>
       </c>
@@ -10044,7 +10052,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>199</v>
       </c>
@@ -10079,7 +10087,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>321</v>
       </c>
@@ -10114,7 +10122,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>212</v>
       </c>
@@ -10149,7 +10157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>324</v>
       </c>
@@ -10184,7 +10192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>326</v>
       </c>
@@ -10219,7 +10227,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>181</v>
       </c>
@@ -10254,7 +10262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>327</v>
       </c>
@@ -10289,7 +10297,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>215</v>
       </c>
@@ -10324,7 +10332,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>140</v>
       </c>
@@ -10359,7 +10367,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>279</v>
       </c>
@@ -10394,7 +10402,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>217</v>
       </c>
@@ -10429,7 +10437,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>329</v>
       </c>
@@ -10464,7 +10472,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>188</v>
       </c>
@@ -10499,7 +10507,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>142</v>
       </c>
@@ -10534,7 +10542,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>332</v>
       </c>
@@ -10569,7 +10577,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>24</v>
       </c>

--- a/data/datasets/roster_stanford.xlsx
+++ b/data/datasets/roster_stanford.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B376987B-5869-44A6-9327-5221DD619CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D9AF5E-E049-4BBF-ABFD-05E31888090D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1160,13 +1160,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Frame2" displayName="Frame2" ref="A1:L86" totalsRowShown="0">
-  <autoFilter ref="A1:L86" xr:uid="{00000000-0009-0000-0100-000003000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="WR"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L86" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="first_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="last_name"/>
@@ -7580,7 +7574,7 @@
   <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7637,7 +7631,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -7671,8 +7665,11 @@
       <c r="K2" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -7706,8 +7703,11 @@
       <c r="K3" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>218</v>
       </c>
@@ -7741,8 +7741,11 @@
       <c r="K4" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -7776,8 +7779,11 @@
       <c r="K5" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -7811,8 +7817,11 @@
       <c r="K6" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -7846,8 +7855,11 @@
       <c r="K7" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>284</v>
       </c>
@@ -7881,8 +7893,11 @@
       <c r="K8" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>286</v>
       </c>
@@ -7916,8 +7931,11 @@
       <c r="K9" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>288</v>
       </c>
@@ -7949,6 +7967,9 @@
         <v>16</v>
       </c>
       <c r="K10" s="2">
+        <v>68</v>
+      </c>
+      <c r="L10">
         <v>68</v>
       </c>
     </row>
@@ -7986,6 +8007,9 @@
       <c r="K11" s="2">
         <v>77</v>
       </c>
+      <c r="L11">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -8021,6 +8045,9 @@
       <c r="K12" s="2">
         <v>78</v>
       </c>
+      <c r="L12">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -8056,6 +8083,9 @@
       <c r="K13" s="2">
         <v>76</v>
       </c>
+      <c r="L13">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -8091,6 +8121,9 @@
       <c r="K14" s="2">
         <v>76</v>
       </c>
+      <c r="L14">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -8126,6 +8159,9 @@
       <c r="K15" s="2">
         <v>75</v>
       </c>
+      <c r="L15">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -8161,8 +8197,11 @@
       <c r="K16" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
@@ -8196,8 +8235,11 @@
       <c r="K17" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>295</v>
       </c>
@@ -8231,8 +8273,11 @@
       <c r="K18" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>336</v>
       </c>
@@ -8266,8 +8311,11 @@
       <c r="K19" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>249</v>
       </c>
@@ -8301,8 +8349,11 @@
       <c r="K20" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>297</v>
       </c>
@@ -8336,8 +8387,11 @@
       <c r="K21" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>299</v>
       </c>
@@ -8371,8 +8425,11 @@
       <c r="K22" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -8406,8 +8463,11 @@
       <c r="K23">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>111</v>
       </c>
@@ -8441,8 +8501,11 @@
       <c r="K24" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>255</v>
       </c>
@@ -8476,8 +8539,11 @@
       <c r="K25" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
@@ -8511,8 +8577,11 @@
       <c r="K26" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -8546,8 +8615,11 @@
       <c r="K27" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
@@ -8581,8 +8653,11 @@
       <c r="K28" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>99</v>
       </c>
@@ -8616,8 +8691,11 @@
       <c r="K29" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>114</v>
       </c>
@@ -8651,8 +8729,11 @@
       <c r="K30" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>303</v>
       </c>
@@ -8686,8 +8767,11 @@
       <c r="K31" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>107</v>
       </c>
@@ -8721,8 +8805,11 @@
       <c r="K32" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -8756,8 +8843,11 @@
       <c r="K33" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>115</v>
       </c>
@@ -8791,8 +8881,11 @@
       <c r="K34" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>97</v>
       </c>
@@ -8826,8 +8919,11 @@
       <c r="K35" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>202</v>
       </c>
@@ -8861,8 +8957,11 @@
       <c r="K36" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
@@ -8896,8 +8995,11 @@
       <c r="K37" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>119</v>
       </c>
@@ -8931,8 +9033,11 @@
       <c r="K38" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>305</v>
       </c>
@@ -8966,8 +9071,11 @@
       <c r="K39" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>157</v>
       </c>
@@ -9001,8 +9109,11 @@
       <c r="K40" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>164</v>
       </c>
@@ -9036,8 +9147,11 @@
       <c r="K41" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>257</v>
       </c>
@@ -9071,8 +9185,11 @@
       <c r="K42" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>259</v>
       </c>
@@ -9106,8 +9223,11 @@
       <c r="K43" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>315</v>
       </c>
@@ -9141,8 +9261,11 @@
       <c r="K44" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>132</v>
       </c>
@@ -9176,8 +9299,11 @@
       <c r="K45" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>140</v>
       </c>
@@ -9211,8 +9337,11 @@
       <c r="K46" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>309</v>
       </c>
@@ -9246,8 +9375,11 @@
       <c r="K47" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>311</v>
       </c>
@@ -9281,8 +9413,11 @@
       <c r="K48" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>313</v>
       </c>
@@ -9316,8 +9451,11 @@
       <c r="K49" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>128</v>
       </c>
@@ -9351,8 +9489,11 @@
       <c r="K50" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>151</v>
       </c>
@@ -9386,8 +9527,11 @@
       <c r="K51" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>144</v>
       </c>
@@ -9421,8 +9565,11 @@
       <c r="K52" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>261</v>
       </c>
@@ -9456,8 +9603,11 @@
       <c r="K53" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>265</v>
       </c>
@@ -9491,8 +9641,11 @@
       <c r="K54" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L54">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>159</v>
       </c>
@@ -9526,8 +9679,11 @@
       <c r="K55" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>166</v>
       </c>
@@ -9561,8 +9717,11 @@
       <c r="K56" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>319</v>
       </c>
@@ -9596,8 +9755,11 @@
       <c r="K57" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>267</v>
       </c>
@@ -9631,8 +9793,11 @@
       <c r="K58" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>88</v>
       </c>
@@ -9666,8 +9831,11 @@
       <c r="K59" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>270</v>
       </c>
@@ -9701,8 +9869,11 @@
       <c r="K60" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
@@ -9736,8 +9907,11 @@
       <c r="K61" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>185</v>
       </c>
@@ -9771,8 +9945,11 @@
       <c r="K62" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
@@ -9806,8 +9983,11 @@
       <c r="K63" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>317</v>
       </c>
@@ -9841,8 +10021,11 @@
       <c r="K64" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>204</v>
       </c>
@@ -9876,8 +10059,11 @@
       <c r="K65" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L65">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>200</v>
       </c>
@@ -9911,8 +10097,11 @@
       <c r="K66" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>274</v>
       </c>
@@ -9946,8 +10135,11 @@
       <c r="K67" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>276</v>
       </c>
@@ -9981,8 +10173,11 @@
       <c r="K68" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L68">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>197</v>
       </c>
@@ -10016,8 +10211,11 @@
       <c r="K69" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>185</v>
       </c>
@@ -10051,8 +10249,11 @@
       <c r="K70" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L70">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>199</v>
       </c>
@@ -10086,8 +10287,11 @@
       <c r="K71" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L71">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>321</v>
       </c>
@@ -10121,8 +10325,11 @@
       <c r="K72" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L72">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>212</v>
       </c>
@@ -10156,8 +10363,11 @@
       <c r="K73" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L73">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>324</v>
       </c>
@@ -10191,8 +10401,11 @@
       <c r="K74" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>326</v>
       </c>
@@ -10226,8 +10439,11 @@
       <c r="K75" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>181</v>
       </c>
@@ -10261,8 +10477,11 @@
       <c r="K76" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>327</v>
       </c>
@@ -10296,8 +10515,11 @@
       <c r="K77" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L77">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>215</v>
       </c>
@@ -10331,8 +10553,11 @@
       <c r="K78" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>140</v>
       </c>
@@ -10366,8 +10591,11 @@
       <c r="K79" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L79">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>279</v>
       </c>
@@ -10401,8 +10629,11 @@
       <c r="K80" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L80">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>217</v>
       </c>
@@ -10436,8 +10667,11 @@
       <c r="K81" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L81">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>329</v>
       </c>
@@ -10471,8 +10705,11 @@
       <c r="K82" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L82">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>188</v>
       </c>
@@ -10506,8 +10743,11 @@
       <c r="K83" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L83">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>142</v>
       </c>
@@ -10541,8 +10781,11 @@
       <c r="K84" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L84">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>332</v>
       </c>
@@ -10576,8 +10819,11 @@
       <c r="K85" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L85">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>24</v>
       </c>
@@ -10611,8 +10857,11 @@
       <c r="K86" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -10625,7 +10874,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -10638,7 +10887,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -10651,7 +10900,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -10664,7 +10913,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -10677,7 +10926,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -10690,7 +10939,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -10703,7 +10952,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>

--- a/data/datasets/roster_stanford.xlsx
+++ b/data/datasets/roster_stanford.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F6CF1A-E4B3-47C6-A81B-F43818F85FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="2027" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="2029" sheetId="3" r:id="rId3"/>
     <sheet name="2030" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1042,11 +1036,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1087,132 +1081,104 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="2">
+    <dxf/>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:L86" totalsRowShown="0">
-  <autoFilter ref="A1:L86" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L86" totalsRowShown="0">
+  <autoFilter ref="A1:L86"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="first_name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="last_name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="class"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="red_shirt"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="position"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="group"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="secondary_group"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="team"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="archetype"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="dev_trait"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="overall_start" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="overall_end" dataDxfId="6"/>
+    <tableColumn id="1" name="first_name" dataDxfId="0"/>
+    <tableColumn id="2" name="last_name" dataDxfId="0"/>
+    <tableColumn id="3" name="class" dataDxfId="0"/>
+    <tableColumn id="4" name="red_shirt" dataDxfId="0"/>
+    <tableColumn id="5" name="position" dataDxfId="0"/>
+    <tableColumn id="6" name="group" dataDxfId="0"/>
+    <tableColumn id="7" name="secondary_group" dataDxfId="0"/>
+    <tableColumn id="8" name="team" dataDxfId="0"/>
+    <tableColumn id="9" name="archetype" dataDxfId="0"/>
+    <tableColumn id="10" name="dev_trait" dataDxfId="0"/>
+    <tableColumn id="11" name="overall_start" dataDxfId="1"/>
+    <tableColumn id="12" name="overall_end" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Frame1" displayName="Frame1" ref="A1:L86" totalsRowShown="0">
-  <autoFilter ref="A1:L86" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Frame1" displayName="Frame1" ref="A1:L86" totalsRowShown="0">
+  <autoFilter ref="A1:L86"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="first_name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="last_name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="class"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="red_shirt"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="position"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="group"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="secondary_group"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="team"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="archetype"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="dev_trait"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="overall_start" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="overall_end" dataDxfId="4"/>
+    <tableColumn id="1" name="first_name" dataDxfId="0"/>
+    <tableColumn id="2" name="last_name" dataDxfId="0"/>
+    <tableColumn id="3" name="class" dataDxfId="0"/>
+    <tableColumn id="4" name="red_shirt" dataDxfId="0"/>
+    <tableColumn id="5" name="position" dataDxfId="0"/>
+    <tableColumn id="6" name="group" dataDxfId="0"/>
+    <tableColumn id="7" name="secondary_group" dataDxfId="0"/>
+    <tableColumn id="8" name="team" dataDxfId="0"/>
+    <tableColumn id="9" name="archetype" dataDxfId="0"/>
+    <tableColumn id="10" name="dev_trait" dataDxfId="0"/>
+    <tableColumn id="11" name="overall_start" dataDxfId="1"/>
+    <tableColumn id="12" name="overall_end" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Frame2" displayName="Frame2" ref="A1:L86" totalsRowShown="0">
-  <autoFilter ref="A1:L86" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Frame2" displayName="Frame2" ref="A1:L86" totalsRowShown="0">
+  <autoFilter ref="A1:L86"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="first_name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="last_name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="class"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="red_shirt"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="position"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="group"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="secondary_group"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="team"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="archetype"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="dev_trait"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="overall_start" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="overall_end" dataDxfId="2"/>
+    <tableColumn id="1" name="first_name" dataDxfId="0"/>
+    <tableColumn id="2" name="last_name" dataDxfId="0"/>
+    <tableColumn id="3" name="class" dataDxfId="0"/>
+    <tableColumn id="4" name="red_shirt" dataDxfId="0"/>
+    <tableColumn id="5" name="position" dataDxfId="0"/>
+    <tableColumn id="6" name="group" dataDxfId="0"/>
+    <tableColumn id="7" name="secondary_group" dataDxfId="0"/>
+    <tableColumn id="8" name="team" dataDxfId="0"/>
+    <tableColumn id="9" name="archetype" dataDxfId="0"/>
+    <tableColumn id="10" name="dev_trait" dataDxfId="0"/>
+    <tableColumn id="11" name="overall_start" dataDxfId="1"/>
+    <tableColumn id="12" name="overall_end" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Frame3" displayName="Frame3" ref="A1:L77" totalsRowShown="0">
-  <autoFilter ref="A1:L77" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Frame3" displayName="Frame3" ref="A1:L77" totalsRowShown="0">
+  <autoFilter ref="A1:L77"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="first_name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="last_name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="class"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="red_shirt"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="position"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="group"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="secondary_group"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="team"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="archetype"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="dev_trait"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="overall_start" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="overall_end" dataDxfId="0"/>
+    <tableColumn id="1" name="first_name" dataDxfId="0"/>
+    <tableColumn id="2" name="last_name" dataDxfId="0"/>
+    <tableColumn id="3" name="class" dataDxfId="0"/>
+    <tableColumn id="4" name="red_shirt" dataDxfId="0"/>
+    <tableColumn id="5" name="position" dataDxfId="0"/>
+    <tableColumn id="6" name="group" dataDxfId="0"/>
+    <tableColumn id="7" name="secondary_group" dataDxfId="0"/>
+    <tableColumn id="8" name="team" dataDxfId="0"/>
+    <tableColumn id="9" name="archetype" dataDxfId="0"/>
+    <tableColumn id="10" name="dev_trait" dataDxfId="0"/>
+    <tableColumn id="11" name="overall_start" dataDxfId="1"/>
+    <tableColumn id="12" name="overall_end" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1250,7 +1216,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1284,7 +1250,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1319,10 +1284,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1495,14 +1459,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1574,7 +1538,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1608,7 +1572,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1642,7 +1606,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1676,7 +1640,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1710,7 +1674,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,7 +1708,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1778,7 +1742,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1812,7 +1776,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1846,7 +1810,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1880,7 +1844,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -1914,7 +1878,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -1948,7 +1912,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1982,7 +1946,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -2016,7 +1980,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -2050,7 +2014,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
@@ -2084,7 +2048,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -2118,7 +2082,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -2152,7 +2116,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -2186,7 +2150,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -2220,7 +2184,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -2254,7 +2218,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
@@ -2288,7 +2252,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
@@ -2322,7 +2286,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -2356,7 +2320,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -2390,7 +2354,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -2424,7 +2388,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -2458,7 +2422,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>95</v>
       </c>
@@ -2492,7 +2456,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>99</v>
       </c>
@@ -2526,7 +2490,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>101</v>
       </c>
@@ -2560,7 +2524,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
@@ -2594,7 +2558,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -2628,7 +2592,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>109</v>
       </c>
@@ -2662,7 +2626,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>99</v>
       </c>
@@ -2696,7 +2660,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
@@ -2730,7 +2694,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>116</v>
       </c>
@@ -2764,7 +2728,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
@@ -2798,7 +2762,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
@@ -2832,7 +2796,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
         <v>121</v>
       </c>
@@ -2866,7 +2830,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>123</v>
       </c>
@@ -2900,7 +2864,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>130</v>
       </c>
@@ -2934,7 +2898,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>132</v>
       </c>
@@ -2968,7 +2932,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
         <v>134</v>
       </c>
@@ -3002,7 +2966,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>137</v>
       </c>
@@ -3036,7 +3000,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>140</v>
       </c>
@@ -3070,7 +3034,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
         <v>142</v>
       </c>
@@ -3104,7 +3068,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3138,7 +3102,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>146</v>
       </c>
@@ -3172,7 +3136,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
@@ -3206,7 +3170,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
         <v>151</v>
       </c>
@@ -3240,7 +3204,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
         <v>153</v>
       </c>
@@ -3274,7 +3238,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>155</v>
       </c>
@@ -3308,7 +3272,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
@@ -3342,7 +3306,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>159</v>
       </c>
@@ -3376,7 +3340,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
         <v>161</v>
       </c>
@@ -3410,7 +3374,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>166</v>
       </c>
@@ -3444,7 +3408,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>168</v>
       </c>
@@ -3478,7 +3442,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>170</v>
       </c>
@@ -3512,7 +3476,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
         <v>173</v>
       </c>
@@ -3546,7 +3510,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
@@ -3580,7 +3544,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
         <v>178</v>
       </c>
@@ -3614,7 +3578,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>180</v>
       </c>
@@ -3648,7 +3612,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>183</v>
       </c>
@@ -3682,7 +3646,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>185</v>
       </c>
@@ -3716,7 +3680,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>187</v>
       </c>
@@ -3750,7 +3714,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>189</v>
       </c>
@@ -3784,7 +3748,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>194</v>
       </c>
@@ -3818,7 +3782,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
         <v>197</v>
       </c>
@@ -3852,7 +3816,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
         <v>199</v>
       </c>
@@ -3886,7 +3850,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
         <v>201</v>
       </c>
@@ -3920,7 +3884,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
         <v>202</v>
       </c>
@@ -3954,7 +3918,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
         <v>204</v>
       </c>
@@ -3988,7 +3952,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
         <v>206</v>
       </c>
@@ -4022,7 +3986,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
         <v>208</v>
       </c>
@@ -4056,7 +4020,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
         <v>213</v>
       </c>
@@ -4090,7 +4054,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
         <v>214</v>
       </c>
@@ -4124,7 +4088,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
         <v>217</v>
       </c>
@@ -4158,7 +4122,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
         <v>219</v>
       </c>
@@ -4192,7 +4156,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
         <v>221</v>
       </c>
@@ -4226,7 +4190,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
         <v>225</v>
       </c>
@@ -4260,7 +4224,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
         <v>142</v>
       </c>
@@ -4294,7 +4258,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
         <v>217</v>
       </c>
@@ -4328,7 +4292,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
         <v>229</v>
       </c>
@@ -4362,7 +4326,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
         <v>190</v>
       </c>
@@ -4396,7 +4360,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
         <v>235</v>
       </c>
@@ -4439,14 +4403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4484,7 +4448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -4520,7 +4484,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -4556,7 +4520,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4594,7 +4558,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -4632,7 +4596,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>239</v>
       </c>
@@ -4668,7 +4632,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -4706,7 +4670,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -4744,7 +4708,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -4782,7 +4746,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>144</v>
       </c>
@@ -4820,7 +4784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>241</v>
       </c>
@@ -4856,7 +4820,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -4892,7 +4856,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -4928,7 +4892,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -4966,7 +4930,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -5004,7 +4968,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>243</v>
       </c>
@@ -5042,7 +5006,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -5080,7 +5044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>245</v>
       </c>
@@ -5118,7 +5082,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>247</v>
       </c>
@@ -5156,7 +5120,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
@@ -5194,7 +5158,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>201</v>
       </c>
@@ -5232,7 +5196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -5268,7 +5232,7 @@
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
@@ -5304,7 +5268,7 @@
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -5342,7 +5306,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>251</v>
       </c>
@@ -5380,7 +5344,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -5416,7 +5380,7 @@
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -5454,7 +5418,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -5492,7 +5456,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>95</v>
       </c>
@@ -5530,7 +5494,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>99</v>
       </c>
@@ -5568,7 +5532,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>101</v>
       </c>
@@ -5606,7 +5570,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
@@ -5644,7 +5608,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -5682,7 +5646,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
@@ -5720,7 +5684,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -5758,7 +5722,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
         <v>99</v>
       </c>
@@ -5796,7 +5760,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>253</v>
       </c>
@@ -5834,7 +5798,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
         <v>255</v>
       </c>
@@ -5872,7 +5836,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
@@ -5910,7 +5874,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
         <v>121</v>
       </c>
@@ -5948,7 +5912,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>257</v>
       </c>
@@ -5984,7 +5948,7 @@
       </c>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>123</v>
       </c>
@@ -6020,7 +5984,7 @@
       </c>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>132</v>
       </c>
@@ -6058,7 +6022,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
         <v>259</v>
       </c>
@@ -6096,7 +6060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>261</v>
       </c>
@@ -6134,7 +6098,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>142</v>
       </c>
@@ -6172,7 +6136,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
@@ -6210,7 +6174,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>263</v>
       </c>
@@ -6248,7 +6212,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>130</v>
       </c>
@@ -6286,7 +6250,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>140</v>
       </c>
@@ -6322,7 +6286,7 @@
       </c>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -6360,7 +6324,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
         <v>146</v>
       </c>
@@ -6398,7 +6362,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>148</v>
       </c>
@@ -6434,7 +6398,7 @@
       </c>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
         <v>265</v>
       </c>
@@ -6472,7 +6436,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>267</v>
       </c>
@@ -6510,7 +6474,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
         <v>161</v>
       </c>
@@ -6548,7 +6512,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>168</v>
       </c>
@@ -6586,7 +6550,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>166</v>
       </c>
@@ -6622,7 +6586,7 @@
       </c>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>176</v>
       </c>
@@ -6658,7 +6622,7 @@
       </c>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
         <v>269</v>
       </c>
@@ -6696,7 +6660,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
         <v>90</v>
       </c>
@@ -6734,7 +6698,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
         <v>272</v>
       </c>
@@ -6772,7 +6736,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
@@ -6810,7 +6774,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>187</v>
       </c>
@@ -6848,7 +6812,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>180</v>
       </c>
@@ -6884,7 +6848,7 @@
       </c>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>185</v>
       </c>
@@ -6922,7 +6886,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>273</v>
       </c>
@@ -6960,7 +6924,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>194</v>
       </c>
@@ -6996,7 +6960,7 @@
       </c>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
         <v>206</v>
       </c>
@@ -7034,7 +6998,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
         <v>202</v>
       </c>
@@ -7072,7 +7036,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
         <v>201</v>
       </c>
@@ -7110,7 +7074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
         <v>199</v>
       </c>
@@ -7148,7 +7112,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
         <v>187</v>
       </c>
@@ -7186,7 +7150,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
         <v>276</v>
       </c>
@@ -7224,7 +7188,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
         <v>278</v>
       </c>
@@ -7262,7 +7226,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
         <v>279</v>
       </c>
@@ -7300,7 +7264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
         <v>214</v>
       </c>
@@ -7338,7 +7302,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
         <v>219</v>
       </c>
@@ -7374,7 +7338,7 @@
       </c>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
         <v>281</v>
       </c>
@@ -7410,7 +7374,7 @@
       </c>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
         <v>279</v>
       </c>
@@ -7448,7 +7412,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
         <v>142</v>
       </c>
@@ -7486,7 +7450,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
         <v>217</v>
       </c>
@@ -7524,7 +7488,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
         <v>229</v>
       </c>
@@ -7560,7 +7524,7 @@
       </c>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
         <v>190</v>
       </c>
@@ -7598,7 +7562,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
         <v>26</v>
       </c>
@@ -7636,7 +7600,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
         <v>235</v>
       </c>
@@ -7683,16 +7647,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7730,7 +7692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -7768,7 +7730,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -7806,7 +7768,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>220</v>
       </c>
@@ -7844,7 +7806,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -7882,7 +7844,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -7920,7 +7882,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -7958,7 +7920,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>286</v>
       </c>
@@ -7996,7 +7958,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>288</v>
       </c>
@@ -8034,7 +7996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>290</v>
       </c>
@@ -8072,7 +8034,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -8110,7 +8072,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -8148,7 +8110,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>243</v>
       </c>
@@ -8186,7 +8148,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>293</v>
       </c>
@@ -8224,7 +8186,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>245</v>
       </c>
@@ -8262,7 +8224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>295</v>
       </c>
@@ -8300,7 +8262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
@@ -8338,7 +8300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>297</v>
       </c>
@@ -8376,7 +8338,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>299</v>
       </c>
@@ -8414,7 +8376,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>251</v>
       </c>
@@ -8452,7 +8414,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>301</v>
       </c>
@@ -8490,7 +8452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>303</v>
       </c>
@@ -8528,7 +8490,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -8566,7 +8528,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>113</v>
       </c>
@@ -8604,7 +8566,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>257</v>
       </c>
@@ -8642,7 +8604,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -8680,7 +8642,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -8718,7 +8680,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>99</v>
       </c>
@@ -8756,7 +8718,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>101</v>
       </c>
@@ -8794,7 +8756,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>116</v>
       </c>
@@ -8832,7 +8794,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>307</v>
       </c>
@@ -8870,7 +8832,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
@@ -8908,7 +8870,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -8946,7 +8908,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
@@ -8984,7 +8946,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>99</v>
       </c>
@@ -9022,7 +8984,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
         <v>204</v>
       </c>
@@ -9060,7 +9022,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>95</v>
       </c>
@@ -9098,7 +9060,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
         <v>121</v>
       </c>
@@ -9136,7 +9098,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
         <v>310</v>
       </c>
@@ -9174,7 +9136,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
@@ -9212,7 +9174,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>166</v>
       </c>
@@ -9250,7 +9212,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>259</v>
       </c>
@@ -9288,7 +9250,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>261</v>
       </c>
@@ -9326,7 +9288,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
         <v>313</v>
       </c>
@@ -9364,7 +9326,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>134</v>
       </c>
@@ -9402,7 +9364,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>142</v>
       </c>
@@ -9440,7 +9402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
         <v>315</v>
       </c>
@@ -9478,7 +9440,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>317</v>
       </c>
@@ -9516,7 +9478,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>319</v>
       </c>
@@ -9554,7 +9516,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>130</v>
       </c>
@@ -9592,7 +9554,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -9630,7 +9592,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
         <v>146</v>
       </c>
@@ -9668,7 +9630,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>263</v>
       </c>
@@ -9706,7 +9668,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
         <v>267</v>
       </c>
@@ -9744,7 +9706,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>161</v>
       </c>
@@ -9782,7 +9744,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
         <v>168</v>
       </c>
@@ -9820,7 +9782,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>321</v>
       </c>
@@ -9858,7 +9820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>269</v>
       </c>
@@ -9896,7 +9858,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>90</v>
       </c>
@@ -9934,7 +9896,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
         <v>272</v>
       </c>
@@ -9972,7 +9934,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -10010,7 +9972,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -10048,7 +10010,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>185</v>
       </c>
@@ -10086,7 +10048,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>323</v>
       </c>
@@ -10124,7 +10086,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>206</v>
       </c>
@@ -10162,7 +10124,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>202</v>
       </c>
@@ -10200,7 +10162,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>276</v>
       </c>
@@ -10238,7 +10200,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>278</v>
       </c>
@@ -10276,7 +10238,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
         <v>199</v>
       </c>
@@ -10314,7 +10276,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
         <v>187</v>
       </c>
@@ -10352,7 +10314,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
         <v>201</v>
       </c>
@@ -10390,7 +10352,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
         <v>325</v>
       </c>
@@ -10428,7 +10390,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
         <v>214</v>
       </c>
@@ -10466,7 +10428,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
         <v>327</v>
       </c>
@@ -10504,7 +10466,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
         <v>329</v>
       </c>
@@ -10542,7 +10504,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
         <v>183</v>
       </c>
@@ -10580,7 +10542,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
         <v>331</v>
       </c>
@@ -10618,7 +10580,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
         <v>217</v>
       </c>
@@ -10656,7 +10618,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
         <v>142</v>
       </c>
@@ -10694,7 +10656,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
         <v>281</v>
       </c>
@@ -10732,7 +10694,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
         <v>219</v>
       </c>
@@ -10770,7 +10732,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
         <v>333</v>
       </c>
@@ -10808,7 +10770,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
         <v>190</v>
       </c>
@@ -10846,7 +10808,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
         <v>144</v>
       </c>
@@ -10884,7 +10846,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
         <v>336</v>
       </c>
@@ -10922,7 +10884,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
         <v>26</v>
       </c>
@@ -10969,20 +10931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11020,7 +10976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -11054,7 +11010,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -11088,7 +11044,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>220</v>
       </c>
@@ -11122,7 +11078,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -11156,7 +11112,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -11190,7 +11146,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -11224,7 +11180,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>286</v>
       </c>
@@ -11258,7 +11214,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>288</v>
       </c>
@@ -11292,7 +11248,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>290</v>
       </c>
@@ -11326,7 +11282,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -11360,7 +11316,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -11394,7 +11350,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>243</v>
       </c>
@@ -11428,7 +11384,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>293</v>
       </c>
@@ -11462,7 +11418,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>245</v>
       </c>
@@ -11496,7 +11452,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>295</v>
       </c>
@@ -11530,7 +11486,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
@@ -11564,7 +11520,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>297</v>
       </c>
@@ -11598,7 +11554,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>251</v>
       </c>
@@ -11632,7 +11588,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>301</v>
       </c>
@@ -11666,7 +11622,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>303</v>
       </c>
@@ -11700,7 +11656,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
@@ -11734,7 +11690,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>257</v>
       </c>
@@ -11768,7 +11724,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -11802,7 +11758,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -11836,7 +11792,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>99</v>
       </c>
@@ -11870,7 +11826,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
@@ -11904,7 +11860,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>116</v>
       </c>
@@ -11938,7 +11894,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>307</v>
       </c>
@@ -11972,7 +11928,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>109</v>
       </c>
@@ -12006,7 +11962,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
@@ -12040,7 +11996,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>117</v>
       </c>
@@ -12074,7 +12030,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>204</v>
       </c>
@@ -12108,7 +12064,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>121</v>
       </c>
@@ -12142,7 +12098,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>310</v>
       </c>
@@ -12176,7 +12132,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
         <v>159</v>
       </c>
@@ -12210,7 +12166,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>166</v>
       </c>
@@ -12244,7 +12200,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
         <v>259</v>
       </c>
@@ -12278,7 +12234,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
         <v>261</v>
       </c>
@@ -12312,7 +12268,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
         <v>313</v>
       </c>
@@ -12346,7 +12302,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>134</v>
       </c>
@@ -12380,7 +12336,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>315</v>
       </c>
@@ -12414,7 +12370,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>317</v>
       </c>
@@ -12448,7 +12404,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
         <v>319</v>
       </c>
@@ -12482,7 +12438,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>153</v>
       </c>
@@ -12516,7 +12472,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>146</v>
       </c>
@@ -12550,7 +12506,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
         <v>263</v>
       </c>
@@ -12584,7 +12540,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>267</v>
       </c>
@@ -12618,7 +12574,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>168</v>
       </c>
@@ -12652,7 +12608,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>321</v>
       </c>
@@ -12686,7 +12642,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
         <v>269</v>
       </c>
@@ -12720,7 +12676,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
         <v>90</v>
       </c>
@@ -12754,7 +12710,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>272</v>
       </c>
@@ -12788,7 +12744,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
         <v>187</v>
       </c>
@@ -12822,7 +12778,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>185</v>
       </c>
@@ -12856,7 +12812,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
         <v>323</v>
       </c>
@@ -12890,7 +12846,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>206</v>
       </c>
@@ -12924,7 +12880,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>202</v>
       </c>
@@ -12958,7 +12914,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>276</v>
       </c>
@@ -12992,7 +12948,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
         <v>278</v>
       </c>
@@ -13026,7 +12982,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
         <v>199</v>
       </c>
@@ -13060,7 +13016,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -13094,7 +13050,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>201</v>
       </c>
@@ -13128,7 +13084,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>325</v>
       </c>
@@ -13162,7 +13118,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>214</v>
       </c>
@@ -13196,7 +13152,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>327</v>
       </c>
@@ -13230,7 +13186,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>329</v>
       </c>
@@ -13264,7 +13220,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>183</v>
       </c>
@@ -13298,7 +13254,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
         <v>331</v>
       </c>
@@ -13332,7 +13288,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
         <v>217</v>
       </c>
@@ -13366,7 +13322,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
         <v>281</v>
       </c>
@@ -13400,7 +13356,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
         <v>219</v>
       </c>
@@ -13434,7 +13390,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
         <v>333</v>
       </c>
@@ -13468,7 +13424,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
         <v>190</v>
       </c>
@@ -13502,7 +13458,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
         <v>144</v>
       </c>
@@ -13536,7 +13492,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
         <v>336</v>
       </c>
@@ -13570,7 +13526,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
         <v>26</v>
       </c>

--- a/data/datasets/roster_stanford.xlsx
+++ b/data/datasets/roster_stanford.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81139E1-BC24-496E-8482-C7F84A4B542C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2027" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="2029" sheetId="3" r:id="rId3"/>
     <sheet name="2030" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3027" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3108" uniqueCount="392">
   <si>
     <t>first_name</t>
   </si>
@@ -1031,16 +1037,178 @@
   </si>
   <si>
     <t>Myarick</t>
+  </si>
+  <si>
+    <t>Akeem</t>
+  </si>
+  <si>
+    <t>Blades</t>
+  </si>
+  <si>
+    <t>Tamm</t>
+  </si>
+  <si>
+    <t>Emery</t>
+  </si>
+  <si>
+    <t>Tyree</t>
+  </si>
+  <si>
+    <t>Nall</t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t>Carraway</t>
+  </si>
+  <si>
+    <t>Nwagbuo</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Rayford</t>
+  </si>
+  <si>
+    <t>Daryl</t>
+  </si>
+  <si>
+    <t>Lindsay</t>
+  </si>
+  <si>
+    <t>Wheeler</t>
+  </si>
+  <si>
+    <t>Slade</t>
+  </si>
+  <si>
+    <t>Vizcaino</t>
+  </si>
+  <si>
+    <t>Bryce</t>
+  </si>
+  <si>
+    <t>Keyton</t>
+  </si>
+  <si>
+    <t>Iosefa</t>
+  </si>
+  <si>
+    <t>Unga</t>
+  </si>
+  <si>
+    <t>Soto</t>
+  </si>
+  <si>
+    <t>Devin</t>
+  </si>
+  <si>
+    <t>McFadden</t>
+  </si>
+  <si>
+    <t>Cary</t>
+  </si>
+  <si>
+    <t>Burt</t>
+  </si>
+  <si>
+    <t>Kenyon</t>
+  </si>
+  <si>
+    <t>Slye</t>
+  </si>
+  <si>
+    <t>Dexter</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>Chauncey</t>
+  </si>
+  <si>
+    <t>Wentz</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Hurns</t>
+  </si>
+  <si>
+    <t>Braylon</t>
+  </si>
+  <si>
+    <t>Hebb</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Tuimaunei</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>Dontrell</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Drew</t>
+  </si>
+  <si>
+    <t>Stryzinski</t>
+  </si>
+  <si>
+    <t>Melvin</t>
+  </si>
+  <si>
+    <t>Whitehair</t>
+  </si>
+  <si>
+    <t>Stefon</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>Hicks</t>
+  </si>
+  <si>
+    <t>Zolak</t>
+  </si>
+  <si>
+    <t>Creed</t>
+  </si>
+  <si>
+    <t>McNair</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1077,108 +1245,137 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf/>
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L86" totalsRowShown="0">
-  <autoFilter ref="A1:L86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:L86" totalsRowShown="0">
+  <autoFilter ref="A1:L86" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="first_name" dataDxfId="0"/>
-    <tableColumn id="2" name="last_name" dataDxfId="0"/>
-    <tableColumn id="3" name="class" dataDxfId="0"/>
-    <tableColumn id="4" name="red_shirt" dataDxfId="0"/>
-    <tableColumn id="5" name="position" dataDxfId="0"/>
-    <tableColumn id="6" name="group" dataDxfId="0"/>
-    <tableColumn id="7" name="secondary_group" dataDxfId="0"/>
-    <tableColumn id="8" name="team" dataDxfId="0"/>
-    <tableColumn id="9" name="archetype" dataDxfId="0"/>
-    <tableColumn id="10" name="dev_trait" dataDxfId="0"/>
-    <tableColumn id="11" name="overall_start" dataDxfId="1"/>
-    <tableColumn id="12" name="overall_end" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="first_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="last_name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="class"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="red_shirt"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="position"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="group"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="secondary_group"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="team"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="archetype"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="dev_trait"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="overall_start" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="overall_end" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Frame1" displayName="Frame1" ref="A1:L86" totalsRowShown="0">
-  <autoFilter ref="A1:L86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Frame1" displayName="Frame1" ref="A1:L86" totalsRowShown="0">
+  <autoFilter ref="A1:L86" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="first_name" dataDxfId="0"/>
-    <tableColumn id="2" name="last_name" dataDxfId="0"/>
-    <tableColumn id="3" name="class" dataDxfId="0"/>
-    <tableColumn id="4" name="red_shirt" dataDxfId="0"/>
-    <tableColumn id="5" name="position" dataDxfId="0"/>
-    <tableColumn id="6" name="group" dataDxfId="0"/>
-    <tableColumn id="7" name="secondary_group" dataDxfId="0"/>
-    <tableColumn id="8" name="team" dataDxfId="0"/>
-    <tableColumn id="9" name="archetype" dataDxfId="0"/>
-    <tableColumn id="10" name="dev_trait" dataDxfId="0"/>
-    <tableColumn id="11" name="overall_start" dataDxfId="1"/>
-    <tableColumn id="12" name="overall_end" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="first_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="last_name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="class"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="red_shirt"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="position"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="group"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="secondary_group"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="team"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="archetype"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="dev_trait"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="overall_start" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="overall_end" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Frame2" displayName="Frame2" ref="A1:L86" totalsRowShown="0">
-  <autoFilter ref="A1:L86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Frame2" displayName="Frame2" ref="A1:L86" totalsRowShown="0">
+  <autoFilter ref="A1:L86" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="first_name" dataDxfId="0"/>
-    <tableColumn id="2" name="last_name" dataDxfId="0"/>
-    <tableColumn id="3" name="class" dataDxfId="0"/>
-    <tableColumn id="4" name="red_shirt" dataDxfId="0"/>
-    <tableColumn id="5" name="position" dataDxfId="0"/>
-    <tableColumn id="6" name="group" dataDxfId="0"/>
-    <tableColumn id="7" name="secondary_group" dataDxfId="0"/>
-    <tableColumn id="8" name="team" dataDxfId="0"/>
-    <tableColumn id="9" name="archetype" dataDxfId="0"/>
-    <tableColumn id="10" name="dev_trait" dataDxfId="0"/>
-    <tableColumn id="11" name="overall_start" dataDxfId="1"/>
-    <tableColumn id="12" name="overall_end" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="first_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="last_name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="class"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="red_shirt"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="position"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="group"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="secondary_group"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="team"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="archetype"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="dev_trait"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="overall_start" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="overall_end" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Frame3" displayName="Frame3" ref="A1:L77" totalsRowShown="0">
-  <autoFilter ref="A1:L77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Frame3" displayName="Frame3" ref="A1:L86" totalsRowShown="0">
+  <autoFilter ref="A1:L86" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="first_name" dataDxfId="0"/>
-    <tableColumn id="2" name="last_name" dataDxfId="0"/>
-    <tableColumn id="3" name="class" dataDxfId="0"/>
-    <tableColumn id="4" name="red_shirt" dataDxfId="0"/>
-    <tableColumn id="5" name="position" dataDxfId="0"/>
-    <tableColumn id="6" name="group" dataDxfId="0"/>
-    <tableColumn id="7" name="secondary_group" dataDxfId="0"/>
-    <tableColumn id="8" name="team" dataDxfId="0"/>
-    <tableColumn id="9" name="archetype" dataDxfId="0"/>
-    <tableColumn id="10" name="dev_trait" dataDxfId="0"/>
-    <tableColumn id="11" name="overall_start" dataDxfId="1"/>
-    <tableColumn id="12" name="overall_end" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="first_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="last_name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="class"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="red_shirt"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="position"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="group"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="secondary_group"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="team"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="archetype"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="dev_trait"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="overall_start" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="overall_end" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1216,7 +1413,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1250,6 +1447,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1284,9 +1482,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1459,14 +1658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1538,7 +1737,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1572,7 +1771,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1606,7 +1805,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1640,7 +1839,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1674,7 +1873,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1708,7 +1907,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1742,7 +1941,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1776,7 +1975,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1810,7 +2009,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1844,7 +2043,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,7 +2077,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -1912,7 +2111,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1946,7 +2145,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -1980,7 +2179,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -2014,7 +2213,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
@@ -2048,7 +2247,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -2082,7 +2281,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -2116,7 +2315,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -2150,7 +2349,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -2184,7 +2383,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -2218,7 +2417,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
@@ -2252,7 +2451,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
@@ -2286,7 +2485,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -2320,7 +2519,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -2354,7 +2553,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -2388,7 +2587,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -2422,7 +2621,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>95</v>
       </c>
@@ -2456,7 +2655,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>99</v>
       </c>
@@ -2490,7 +2689,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>101</v>
       </c>
@@ -2524,7 +2723,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
@@ -2558,7 +2757,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -2592,7 +2791,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>109</v>
       </c>
@@ -2626,7 +2825,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>99</v>
       </c>
@@ -2660,7 +2859,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
@@ -2694,7 +2893,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>116</v>
       </c>
@@ -2728,7 +2927,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
@@ -2762,7 +2961,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
@@ -2796,7 +2995,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>121</v>
       </c>
@@ -2830,7 +3029,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>123</v>
       </c>
@@ -2864,7 +3063,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>130</v>
       </c>
@@ -2898,7 +3097,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>132</v>
       </c>
@@ -2932,7 +3131,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>134</v>
       </c>
@@ -2966,7 +3165,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>137</v>
       </c>
@@ -3000,7 +3199,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>140</v>
       </c>
@@ -3034,7 +3233,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>142</v>
       </c>
@@ -3068,7 +3267,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3102,7 +3301,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>146</v>
       </c>
@@ -3136,7 +3335,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
@@ -3170,7 +3369,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>151</v>
       </c>
@@ -3204,7 +3403,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>153</v>
       </c>
@@ -3238,7 +3437,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>155</v>
       </c>
@@ -3272,7 +3471,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
@@ -3306,7 +3505,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>159</v>
       </c>
@@ -3340,7 +3539,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>161</v>
       </c>
@@ -3374,7 +3573,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>166</v>
       </c>
@@ -3408,7 +3607,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>168</v>
       </c>
@@ -3442,7 +3641,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>170</v>
       </c>
@@ -3476,7 +3675,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>173</v>
       </c>
@@ -3510,7 +3709,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
@@ -3544,7 +3743,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>178</v>
       </c>
@@ -3578,7 +3777,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>180</v>
       </c>
@@ -3612,7 +3811,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>183</v>
       </c>
@@ -3646,7 +3845,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>185</v>
       </c>
@@ -3680,7 +3879,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>187</v>
       </c>
@@ -3714,7 +3913,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>189</v>
       </c>
@@ -3748,7 +3947,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>194</v>
       </c>
@@ -3782,7 +3981,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>197</v>
       </c>
@@ -3816,7 +4015,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>199</v>
       </c>
@@ -3850,7 +4049,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>201</v>
       </c>
@@ -3884,7 +4083,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>202</v>
       </c>
@@ -3918,7 +4117,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>204</v>
       </c>
@@ -3952,7 +4151,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>206</v>
       </c>
@@ -3986,7 +4185,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>208</v>
       </c>
@@ -4020,7 +4219,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>213</v>
       </c>
@@ -4054,7 +4253,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>214</v>
       </c>
@@ -4088,7 +4287,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>217</v>
       </c>
@@ -4122,7 +4321,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>219</v>
       </c>
@@ -4156,7 +4355,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>221</v>
       </c>
@@ -4190,7 +4389,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>225</v>
       </c>
@@ -4224,7 +4423,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>142</v>
       </c>
@@ -4258,7 +4457,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>217</v>
       </c>
@@ -4292,7 +4491,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>229</v>
       </c>
@@ -4326,7 +4525,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>190</v>
       </c>
@@ -4360,7 +4559,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>235</v>
       </c>
@@ -4403,14 +4602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A67" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4448,7 +4647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -4484,7 +4683,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -4520,7 +4719,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4558,7 +4757,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -4596,7 +4795,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>239</v>
       </c>
@@ -4632,7 +4831,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -4670,7 +4869,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -4708,7 +4907,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -4746,7 +4945,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>144</v>
       </c>
@@ -4784,7 +4983,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>241</v>
       </c>
@@ -4820,7 +5019,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -4856,7 +5055,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -4892,7 +5091,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -4930,7 +5129,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -4968,7 +5167,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>243</v>
       </c>
@@ -5006,7 +5205,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -5044,7 +5243,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>245</v>
       </c>
@@ -5082,7 +5281,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>247</v>
       </c>
@@ -5120,7 +5319,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
@@ -5158,7 +5357,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>201</v>
       </c>
@@ -5196,7 +5395,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -5232,7 +5431,7 @@
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
@@ -5268,7 +5467,7 @@
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -5306,7 +5505,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>251</v>
       </c>
@@ -5344,7 +5543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -5380,7 +5579,7 @@
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,7 +5617,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -5456,7 +5655,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>95</v>
       </c>
@@ -5494,7 +5693,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>99</v>
       </c>
@@ -5532,7 +5731,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>101</v>
       </c>
@@ -5570,7 +5769,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
@@ -5608,7 +5807,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -5646,7 +5845,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
@@ -5684,7 +5883,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -5722,7 +5921,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>99</v>
       </c>
@@ -5760,7 +5959,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>253</v>
       </c>
@@ -5798,7 +5997,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>255</v>
       </c>
@@ -5836,7 +6035,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
@@ -5874,7 +6073,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>121</v>
       </c>
@@ -5912,7 +6111,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>257</v>
       </c>
@@ -5948,7 +6147,7 @@
       </c>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>123</v>
       </c>
@@ -5984,7 +6183,7 @@
       </c>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>132</v>
       </c>
@@ -6022,7 +6221,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>259</v>
       </c>
@@ -6060,7 +6259,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>261</v>
       </c>
@@ -6098,7 +6297,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>142</v>
       </c>
@@ -6136,7 +6335,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
@@ -6174,7 +6373,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>263</v>
       </c>
@@ -6212,7 +6411,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>130</v>
       </c>
@@ -6250,7 +6449,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>140</v>
       </c>
@@ -6286,7 +6485,7 @@
       </c>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -6324,7 +6523,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>146</v>
       </c>
@@ -6362,7 +6561,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>148</v>
       </c>
@@ -6398,7 +6597,7 @@
       </c>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>265</v>
       </c>
@@ -6436,7 +6635,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>267</v>
       </c>
@@ -6474,7 +6673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>161</v>
       </c>
@@ -6512,7 +6711,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>168</v>
       </c>
@@ -6550,7 +6749,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>166</v>
       </c>
@@ -6586,7 +6785,7 @@
       </c>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>176</v>
       </c>
@@ -6622,7 +6821,7 @@
       </c>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>269</v>
       </c>
@@ -6660,7 +6859,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>90</v>
       </c>
@@ -6698,7 +6897,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>272</v>
       </c>
@@ -6736,7 +6935,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
@@ -6774,7 +6973,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>187</v>
       </c>
@@ -6812,7 +7011,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>180</v>
       </c>
@@ -6848,7 +7047,7 @@
       </c>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>185</v>
       </c>
@@ -6886,7 +7085,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>273</v>
       </c>
@@ -6924,7 +7123,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>194</v>
       </c>
@@ -6960,7 +7159,7 @@
       </c>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>206</v>
       </c>
@@ -6998,7 +7197,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>202</v>
       </c>
@@ -7036,7 +7235,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>201</v>
       </c>
@@ -7074,7 +7273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>199</v>
       </c>
@@ -7112,7 +7311,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>187</v>
       </c>
@@ -7150,7 +7349,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>276</v>
       </c>
@@ -7188,7 +7387,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>278</v>
       </c>
@@ -7226,7 +7425,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>279</v>
       </c>
@@ -7264,7 +7463,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>214</v>
       </c>
@@ -7302,7 +7501,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>219</v>
       </c>
@@ -7338,7 +7537,7 @@
       </c>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>281</v>
       </c>
@@ -7374,7 +7573,7 @@
       </c>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>279</v>
       </c>
@@ -7412,7 +7611,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>142</v>
       </c>
@@ -7450,7 +7649,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>217</v>
       </c>
@@ -7488,7 +7687,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>229</v>
       </c>
@@ -7524,7 +7723,7 @@
       </c>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>190</v>
       </c>
@@ -7562,7 +7761,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>26</v>
       </c>
@@ -7600,7 +7799,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>235</v>
       </c>
@@ -7647,14 +7846,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7692,7 +7893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -7730,7 +7931,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -7768,7 +7969,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>220</v>
       </c>
@@ -7806,7 +8007,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -7844,7 +8045,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -7882,7 +8083,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -7920,7 +8121,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>286</v>
       </c>
@@ -7958,7 +8159,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>288</v>
       </c>
@@ -7996,7 +8197,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>290</v>
       </c>
@@ -8034,7 +8235,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -8072,7 +8273,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -8110,7 +8311,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>243</v>
       </c>
@@ -8148,7 +8349,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>293</v>
       </c>
@@ -8186,7 +8387,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>245</v>
       </c>
@@ -8224,7 +8425,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>295</v>
       </c>
@@ -8262,7 +8463,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
@@ -8300,7 +8501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>297</v>
       </c>
@@ -8338,7 +8539,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>299</v>
       </c>
@@ -8376,7 +8577,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>251</v>
       </c>
@@ -8414,7 +8615,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>301</v>
       </c>
@@ -8452,7 +8653,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>303</v>
       </c>
@@ -8490,7 +8691,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -8528,7 +8729,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>113</v>
       </c>
@@ -8566,7 +8767,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>257</v>
       </c>
@@ -8604,7 +8805,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -8642,7 +8843,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -8680,7 +8881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>99</v>
       </c>
@@ -8718,7 +8919,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>101</v>
       </c>
@@ -8756,7 +8957,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>116</v>
       </c>
@@ -8794,7 +8995,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>307</v>
       </c>
@@ -8832,7 +9033,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
@@ -8870,7 +9071,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -8908,7 +9109,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
@@ -8946,7 +9147,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>99</v>
       </c>
@@ -8984,7 +9185,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>204</v>
       </c>
@@ -9022,7 +9223,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>95</v>
       </c>
@@ -9060,7 +9261,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>121</v>
       </c>
@@ -9098,7 +9299,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>310</v>
       </c>
@@ -9136,7 +9337,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
@@ -9174,7 +9375,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>166</v>
       </c>
@@ -9212,7 +9413,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>259</v>
       </c>
@@ -9250,7 +9451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>261</v>
       </c>
@@ -9288,7 +9489,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>313</v>
       </c>
@@ -9326,7 +9527,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>134</v>
       </c>
@@ -9364,7 +9565,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>142</v>
       </c>
@@ -9402,7 +9603,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>315</v>
       </c>
@@ -9440,7 +9641,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>317</v>
       </c>
@@ -9478,7 +9679,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>319</v>
       </c>
@@ -9516,7 +9717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>130</v>
       </c>
@@ -9554,7 +9755,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -9592,7 +9793,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>146</v>
       </c>
@@ -9630,7 +9831,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>263</v>
       </c>
@@ -9668,7 +9869,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>267</v>
       </c>
@@ -9706,7 +9907,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>161</v>
       </c>
@@ -9744,7 +9945,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>168</v>
       </c>
@@ -9782,7 +9983,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>321</v>
       </c>
@@ -9820,7 +10021,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>269</v>
       </c>
@@ -9858,7 +10059,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>90</v>
       </c>
@@ -9896,7 +10097,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>272</v>
       </c>
@@ -9934,7 +10135,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -9972,7 +10173,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -10010,7 +10211,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>185</v>
       </c>
@@ -10048,7 +10249,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>323</v>
       </c>
@@ -10086,7 +10287,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>206</v>
       </c>
@@ -10124,7 +10325,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>202</v>
       </c>
@@ -10162,7 +10363,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>276</v>
       </c>
@@ -10200,7 +10401,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>278</v>
       </c>
@@ -10238,7 +10439,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>199</v>
       </c>
@@ -10276,7 +10477,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>187</v>
       </c>
@@ -10314,7 +10515,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>201</v>
       </c>
@@ -10352,7 +10553,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>325</v>
       </c>
@@ -10390,7 +10591,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>214</v>
       </c>
@@ -10428,7 +10629,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>327</v>
       </c>
@@ -10466,7 +10667,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>329</v>
       </c>
@@ -10504,7 +10705,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>183</v>
       </c>
@@ -10542,7 +10743,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>331</v>
       </c>
@@ -10580,7 +10781,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>217</v>
       </c>
@@ -10618,7 +10819,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>142</v>
       </c>
@@ -10656,7 +10857,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>281</v>
       </c>
@@ -10694,7 +10895,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>219</v>
       </c>
@@ -10732,7 +10933,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>333</v>
       </c>
@@ -10770,7 +10971,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>190</v>
       </c>
@@ -10808,7 +11009,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>144</v>
       </c>
@@ -10846,7 +11047,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>336</v>
       </c>
@@ -10884,7 +11085,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>26</v>
       </c>
@@ -10931,14 +11132,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10976,15 +11193,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="b">
         <v>1</v>
@@ -11002,23 +11219,25 @@
         <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="K2" s="2">
+        <v>87</v>
+      </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>1</v>
@@ -11036,23 +11255,25 @@
         <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>82</v>
+      </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>220</v>
+        <v>338</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>0</v>
@@ -11073,46 +11294,50 @@
         <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>77</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>75</v>
+      </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -11143,18 +11368,20 @@
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>90</v>
+      </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>1</v>
@@ -11172,26 +11399,28 @@
         <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K7" s="2">
+        <v>87</v>
+      </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>286</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>287</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>32</v>
@@ -11206,26 +11435,28 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>85</v>
+      </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
@@ -11240,29 +11471,31 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K9" s="2">
+        <v>77</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="b">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>292</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
@@ -11273,24 +11506,26 @@
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="3">
+        <v>73</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>295</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>296</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>1</v>
@@ -11308,26 +11543,28 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>84</v>
+      </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>54</v>
@@ -11342,26 +11579,28 @@
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>66</v>
+        <v>244</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="K12" s="2">
+        <v>80</v>
+      </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>54</v>
@@ -11376,15 +11615,17 @@
         <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>244</v>
+        <v>66</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K13" s="2">
+        <v>79</v>
+      </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>293</v>
       </c>
@@ -11415,18 +11656,20 @@
       <c r="J14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>79</v>
+      </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="b">
         <v>1</v>
@@ -11444,23 +11687,25 @@
         <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>78</v>
+      </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="b">
         <v>0</v>
@@ -11481,23 +11726,25 @@
         <v>244</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K16" s="2">
+        <v>76</v>
+      </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>293</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>249</v>
+        <v>346</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>54</v>
@@ -11515,20 +11762,22 @@
         <v>244</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="K17" s="2">
+        <v>68</v>
+      </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="b">
         <v>0</v>
@@ -11549,29 +11798,31 @@
         <v>66</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="K18" s="2">
+        <v>68</v>
+      </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="1" t="b">
-        <v>1</v>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>34</v>
@@ -11579,27 +11830,29 @@
       <c r="H19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="I19" t="s">
+        <v>244</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="3">
+        <v>66</v>
+      </c>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>75</v>
@@ -11617,20 +11870,22 @@
         <v>76</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="K20" s="2">
+        <v>83</v>
+      </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="b">
         <v>0</v>
@@ -11651,12 +11906,14 @@
         <v>76</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="K21" s="2">
+        <v>74</v>
+      </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
@@ -11664,10 +11921,10 @@
         <v>305</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>75</v>
@@ -11687,129 +11944,137 @@
       <c r="J22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2">
+        <v>71</v>
+      </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>258</v>
+        <v>351</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2">
+        <v>67</v>
+      </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="2">
+        <v>66</v>
+      </c>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="2">
+        <v>65</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="D26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>88</v>
@@ -11821,29 +12086,31 @@
         <v>92</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="K26" s="2">
+        <v>83</v>
+      </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>88</v>
@@ -11852,32 +12119,34 @@
         <v>16</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="K27" s="2">
+        <v>83</v>
+      </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>366</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>100</v>
+        <v>367</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>88</v>
@@ -11891,27 +12160,29 @@
       <c r="J28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="K28" s="2">
+        <v>75</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>307</v>
+        <v>90</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>88</v>
@@ -11923,17 +12194,19 @@
         <v>103</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="K29" s="2">
+        <v>75</v>
+      </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>31</v>
@@ -11942,10 +12215,10 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>88</v>
@@ -11954,20 +12227,22 @@
         <v>16</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2">
+        <v>93</v>
+      </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>14</v>
@@ -11976,10 +12251,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>88</v>
@@ -11993,24 +12268,26 @@
       <c r="J31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="2"/>
+      <c r="K31" s="2">
+        <v>86</v>
+      </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>118</v>
+        <v>308</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>98</v>
@@ -12022,29 +12299,31 @@
         <v>16</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="K32" s="2">
+        <v>79</v>
+      </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>204</v>
+        <v>359</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>309</v>
+        <v>360</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>98</v>
@@ -12059,29 +12338,31 @@
         <v>103</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K33" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="K33" s="2">
+        <v>68</v>
+      </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>121</v>
+        <v>362</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>363</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>88</v>
@@ -12090,32 +12371,34 @@
         <v>16</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K34" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="K34" s="2">
+        <v>65</v>
+      </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>310</v>
+        <v>109</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>311</v>
+        <v>110</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>88</v>
@@ -12127,29 +12410,31 @@
         <v>103</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K35" s="2">
+        <v>88</v>
+      </c>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>88</v>
@@ -12161,289 +12446,307 @@
         <v>103</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K36" s="2">
+        <v>81</v>
+      </c>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="1" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="2">
+        <v>75</v>
+      </c>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="2"/>
+      <c r="K38" s="2">
+        <v>90</v>
+      </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="K39" s="2">
+        <v>78</v>
+      </c>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="K40" s="2">
+        <v>74</v>
+      </c>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>135</v>
+        <v>361</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K41" s="2">
+        <v>68</v>
+      </c>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B42" t="s">
+        <v>365</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>103</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="2">
+        <v>64</v>
+      </c>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D43" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="2"/>
+      <c r="K43" s="2">
+        <v>88</v>
+      </c>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>319</v>
+        <v>121</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>320</v>
+        <v>122</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="K44" s="2">
+        <v>86</v>
+      </c>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>31</v>
@@ -12452,10 +12755,10 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>127</v>
@@ -12464,32 +12767,34 @@
         <v>128</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="2"/>
+      <c r="K45" s="2">
+        <v>92</v>
+      </c>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D46" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>127</v>
@@ -12498,32 +12803,34 @@
         <v>128</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K46" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K46" s="2">
+        <v>83</v>
+      </c>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>127</v>
@@ -12535,29 +12842,31 @@
         <v>129</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K47" s="2">
+        <v>80</v>
+      </c>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>267</v>
+        <v>368</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>268</v>
+        <v>369</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D48" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>127</v>
@@ -12566,205 +12875,217 @@
         <v>128</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K48" s="2"/>
+      <c r="K48" s="2">
+        <v>78</v>
+      </c>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D49" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K49" s="2">
+        <v>88</v>
+      </c>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K50" s="2"/>
+      <c r="K50" s="2">
+        <v>86</v>
+      </c>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K51" s="2">
+        <v>80</v>
+      </c>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="2">
+        <v>73</v>
+      </c>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>370</v>
+      </c>
+      <c r="B53" t="s">
+        <v>371</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" t="s">
+        <v>133</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="2">
+        <v>73</v>
+      </c>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D54" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>128</v>
@@ -12773,17 +13094,19 @@
         <v>136</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="K54" s="2">
+        <v>90</v>
+      </c>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>31</v>
@@ -12792,13 +13115,13 @@
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>128</v>
@@ -12809,219 +13132,233 @@
       <c r="J55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K55" s="2"/>
+      <c r="K55" s="2">
+        <v>89</v>
+      </c>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D56" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="2">
+        <v>83</v>
+      </c>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="2">
+        <v>76</v>
+      </c>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>374</v>
+      </c>
+      <c r="B58" t="s">
+        <v>375</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I58" t="s">
+        <v>136</v>
+      </c>
+      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="2">
+        <v>71</v>
+      </c>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J58" s="1" t="s">
+      <c r="H59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="2">
+        <v>88</v>
+      </c>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K60" s="2"/>
+      <c r="K60" s="2">
+        <v>75</v>
+      </c>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>199</v>
+        <v>378</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>200</v>
+        <v>379</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K61" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="K61" s="2">
+        <v>76</v>
+      </c>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>14</v>
@@ -13030,214 +13367,226 @@
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K62" s="2"/>
+      <c r="K62" s="2">
+        <v>86</v>
+      </c>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="2"/>
+      <c r="K63" s="2">
+        <v>84</v>
+      </c>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>325</v>
+        <v>185</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>326</v>
+        <v>186</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D64" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K64" s="2"/>
+      <c r="K64" s="2">
+        <v>81</v>
+      </c>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D65" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K65" s="2"/>
+      <c r="K65" s="2">
+        <v>88</v>
+      </c>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D66" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K66" s="2"/>
+      <c r="K66" s="2">
+        <v>80</v>
+      </c>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>13</v>
+        <v>377</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K67" s="2"/>
+      <c r="K67" s="2">
+        <v>76</v>
+      </c>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D68" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>192</v>
@@ -13246,32 +13595,34 @@
         <v>128</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K68" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="K68" s="2">
+        <v>88</v>
+      </c>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D69" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>192</v>
@@ -13283,29 +13634,31 @@
         <v>212</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K69" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K69" s="2">
+        <v>87</v>
+      </c>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>192</v>
@@ -13314,32 +13667,34 @@
         <v>128</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K70" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K70" s="2">
+        <v>87</v>
+      </c>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>282</v>
+        <v>59</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>192</v>
@@ -13348,32 +13703,34 @@
         <v>128</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K71" s="2"/>
+      <c r="K71" s="2">
+        <v>83</v>
+      </c>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>192</v>
@@ -13382,32 +13739,34 @@
         <v>128</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K72" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K72" s="2">
+        <v>83</v>
+      </c>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>334</v>
+        <v>94</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D73" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>192</v>
@@ -13416,149 +13775,754 @@
         <v>128</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="2">
+        <v>83</v>
+      </c>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" s="2">
+        <v>77</v>
+      </c>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="2">
+        <v>86</v>
+      </c>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="2">
+        <v>83</v>
+      </c>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77" s="2">
+        <v>82</v>
+      </c>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="2">
+        <v>75</v>
+      </c>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>386</v>
+      </c>
+      <c r="B79" t="s">
+        <v>387</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I79" t="s">
+        <v>212</v>
+      </c>
+      <c r="J79" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="2">
+        <v>67</v>
+      </c>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="1" t="s">
+      <c r="K80" s="2">
+        <v>80</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K81" s="2">
+        <v>74</v>
+      </c>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K82" s="2">
+        <v>75</v>
+      </c>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="D83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="J83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="2">
+        <v>86</v>
+      </c>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="J84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="2">
+        <v>67</v>
+      </c>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H85" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K85" s="2">
+        <v>78</v>
+      </c>
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>390</v>
+      </c>
+      <c r="B86" t="s">
+        <v>391</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="G86" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I86" t="s">
         <v>92</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
+      <c r="J86" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="2">
+        <v>66</v>
+      </c>
+      <c r="L86" s="2"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/datasets/roster_stanford.xlsx
+++ b/data/datasets/roster_stanford.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81139E1-BC24-496E-8482-C7F84A4B542C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D56F7B-1A1B-490C-AD38-82821AF80B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11135,8 +11135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11227,7 +11227,9 @@
       <c r="K2" s="2">
         <v>87</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -11263,7 +11265,9 @@
       <c r="K3" s="2">
         <v>82</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -11299,7 +11303,9 @@
       <c r="K4" s="2">
         <v>77</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -11335,7 +11341,9 @@
       <c r="K5" s="2">
         <v>75</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -11371,7 +11379,9 @@
       <c r="K6" s="2">
         <v>90</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -11407,7 +11417,9 @@
       <c r="K7" s="2">
         <v>87</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -11443,7 +11455,9 @@
       <c r="K8" s="2">
         <v>85</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -11479,7 +11493,9 @@
       <c r="K9" s="2">
         <v>77</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -11515,7 +11531,9 @@
       <c r="K10" s="3">
         <v>73</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -11551,17 +11569,19 @@
       <c r="K11" s="2">
         <v>84</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="b">
         <v>0</v>
@@ -11579,28 +11599,30 @@
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>244</v>
+        <v>55</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K12" s="2">
-        <v>80</v>
-      </c>
-      <c r="L12" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="L12" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>54</v>
@@ -11615,28 +11637,30 @@
         <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>66</v>
+        <v>244</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K13" s="2">
-        <v>79</v>
-      </c>
-      <c r="L13" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="L13" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>293</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>294</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>54</v>
@@ -11651,15 +11675,17 @@
         <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K14" s="2">
         <v>79</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -11695,7 +11721,9 @@
       <c r="K15" s="2">
         <v>78</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -11731,7 +11759,9 @@
       <c r="K16" s="2">
         <v>76</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2">
+        <v>76</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -11767,7 +11797,9 @@
       <c r="K17" s="2">
         <v>68</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -11803,7 +11835,9 @@
       <c r="K18" s="2">
         <v>68</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -11839,7 +11873,9 @@
       <c r="K19" s="3">
         <v>66</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3">
+        <v>66</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -11875,7 +11911,9 @@
       <c r="K20" s="2">
         <v>83</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -11911,7 +11949,9 @@
       <c r="K21" s="2">
         <v>74</v>
       </c>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -11947,7 +11987,9 @@
       <c r="K22" s="2">
         <v>71</v>
       </c>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2">
+        <v>71</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -11983,7 +12025,9 @@
       <c r="K23" s="2">
         <v>67</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -12019,7 +12063,9 @@
       <c r="K24" s="2">
         <v>66</v>
       </c>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2">
+        <v>66</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -12055,7 +12101,9 @@
       <c r="K25" s="2">
         <v>65</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -12091,7 +12139,9 @@
       <c r="K26" s="2">
         <v>83</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2">
+        <v>84</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -12127,7 +12177,9 @@
       <c r="K27" s="2">
         <v>83</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -12163,7 +12215,9 @@
       <c r="K28" s="2">
         <v>75</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -12199,7 +12253,9 @@
       <c r="K29" s="2">
         <v>75</v>
       </c>
-      <c r="L29" s="2"/>
+      <c r="L29" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -12235,7 +12291,9 @@
       <c r="K30" s="2">
         <v>93</v>
       </c>
-      <c r="L30" s="2"/>
+      <c r="L30" s="2">
+        <v>93</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -12271,7 +12329,9 @@
       <c r="K31" s="2">
         <v>86</v>
       </c>
-      <c r="L31" s="2"/>
+      <c r="L31" s="2">
+        <v>88</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -12307,7 +12367,9 @@
       <c r="K32" s="2">
         <v>79</v>
       </c>
-      <c r="L32" s="2"/>
+      <c r="L32" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -12343,7 +12405,9 @@
       <c r="K33" s="2">
         <v>68</v>
       </c>
-      <c r="L33" s="2"/>
+      <c r="L33" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -12379,7 +12443,9 @@
       <c r="K34" s="2">
         <v>65</v>
       </c>
-      <c r="L34" s="2"/>
+      <c r="L34" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -12415,7 +12481,9 @@
       <c r="K35" s="2">
         <v>88</v>
       </c>
-      <c r="L35" s="2"/>
+      <c r="L35" s="2">
+        <v>88</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -12451,7 +12519,9 @@
       <c r="K36" s="2">
         <v>81</v>
       </c>
-      <c r="L36" s="2"/>
+      <c r="L36" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -12487,7 +12557,9 @@
       <c r="K37" s="2">
         <v>75</v>
       </c>
-      <c r="L37" s="2"/>
+      <c r="L37" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -12523,7 +12595,9 @@
       <c r="K38" s="2">
         <v>90</v>
       </c>
-      <c r="L38" s="2"/>
+      <c r="L38" s="2">
+        <v>90</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -12559,7 +12633,9 @@
       <c r="K39" s="2">
         <v>78</v>
       </c>
-      <c r="L39" s="2"/>
+      <c r="L39" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
@@ -12595,7 +12671,9 @@
       <c r="K40" s="2">
         <v>74</v>
       </c>
-      <c r="L40" s="2"/>
+      <c r="L40" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -12631,7 +12709,9 @@
       <c r="K41" s="2">
         <v>68</v>
       </c>
-      <c r="L41" s="2"/>
+      <c r="L41" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -12667,7 +12747,9 @@
       <c r="K42" s="2">
         <v>64</v>
       </c>
-      <c r="L42" s="2"/>
+      <c r="L42" s="2">
+        <v>64</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -12703,7 +12785,9 @@
       <c r="K43" s="2">
         <v>88</v>
       </c>
-      <c r="L43" s="2"/>
+      <c r="L43" s="2">
+        <v>88</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -12739,7 +12823,9 @@
       <c r="K44" s="2">
         <v>86</v>
       </c>
-      <c r="L44" s="2"/>
+      <c r="L44" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -12775,7 +12861,9 @@
       <c r="K45" s="2">
         <v>92</v>
       </c>
-      <c r="L45" s="2"/>
+      <c r="L45" s="2">
+        <v>92</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
@@ -12811,7 +12899,9 @@
       <c r="K46" s="2">
         <v>83</v>
       </c>
-      <c r="L46" s="2"/>
+      <c r="L46" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -12847,7 +12937,9 @@
       <c r="K47" s="2">
         <v>80</v>
       </c>
-      <c r="L47" s="2"/>
+      <c r="L47" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
@@ -12883,7 +12975,9 @@
       <c r="K48" s="2">
         <v>78</v>
       </c>
-      <c r="L48" s="2"/>
+      <c r="L48" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
@@ -12919,7 +13013,9 @@
       <c r="K49" s="2">
         <v>88</v>
       </c>
-      <c r="L49" s="2"/>
+      <c r="L49" s="2">
+        <v>89</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -12955,7 +13051,9 @@
       <c r="K50" s="2">
         <v>86</v>
       </c>
-      <c r="L50" s="2"/>
+      <c r="L50" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -12991,7 +13089,9 @@
       <c r="K51" s="2">
         <v>80</v>
       </c>
-      <c r="L51" s="2"/>
+      <c r="L51" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -13027,7 +13127,9 @@
       <c r="K52" s="2">
         <v>73</v>
       </c>
-      <c r="L52" s="2"/>
+      <c r="L52" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -13063,7 +13165,9 @@
       <c r="K53" s="2">
         <v>73</v>
       </c>
-      <c r="L53" s="2"/>
+      <c r="L53" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -13099,7 +13203,9 @@
       <c r="K54" s="2">
         <v>90</v>
       </c>
-      <c r="L54" s="2"/>
+      <c r="L54" s="2">
+        <v>90</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -13135,7 +13241,9 @@
       <c r="K55" s="2">
         <v>89</v>
       </c>
-      <c r="L55" s="2"/>
+      <c r="L55" s="2">
+        <v>89</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -13171,7 +13279,9 @@
       <c r="K56" s="2">
         <v>83</v>
       </c>
-      <c r="L56" s="2"/>
+      <c r="L56" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
@@ -13207,7 +13317,9 @@
       <c r="K57" s="2">
         <v>76</v>
       </c>
-      <c r="L57" s="2"/>
+      <c r="L57" s="2">
+        <v>76</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -13243,7 +13355,9 @@
       <c r="K58" s="2">
         <v>71</v>
       </c>
-      <c r="L58" s="2"/>
+      <c r="L58" s="2">
+        <v>71</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
@@ -13279,14 +13393,16 @@
       <c r="K59" s="2">
         <v>88</v>
       </c>
-      <c r="L59" s="2"/>
+      <c r="L59" s="2">
+        <v>90</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>25</v>
@@ -13307,22 +13423,24 @@
         <v>128</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="K60" s="2">
-        <v>75</v>
-      </c>
-      <c r="L60" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="L60" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>25</v>
@@ -13343,15 +13461,17 @@
         <v>128</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="K61" s="2">
-        <v>76</v>
-      </c>
-      <c r="L61" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="L61" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
@@ -13387,7 +13507,9 @@
       <c r="K62" s="2">
         <v>86</v>
       </c>
-      <c r="L62" s="2"/>
+      <c r="L62" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
@@ -13423,7 +13545,9 @@
       <c r="K63" s="2">
         <v>84</v>
       </c>
-      <c r="L63" s="2"/>
+      <c r="L63" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -13459,7 +13583,9 @@
       <c r="K64" s="2">
         <v>81</v>
       </c>
-      <c r="L64" s="2"/>
+      <c r="L64" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -13495,7 +13621,9 @@
       <c r="K65" s="2">
         <v>88</v>
       </c>
-      <c r="L65" s="2"/>
+      <c r="L65" s="2">
+        <v>88</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
@@ -13531,7 +13659,9 @@
       <c r="K66" s="2">
         <v>80</v>
       </c>
-      <c r="L66" s="2"/>
+      <c r="L66" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -13567,7 +13697,9 @@
       <c r="K67" s="2">
         <v>76</v>
       </c>
-      <c r="L67" s="2"/>
+      <c r="L67" s="2">
+        <v>76</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
@@ -13603,17 +13735,19 @@
       <c r="K68" s="2">
         <v>88</v>
       </c>
-      <c r="L68" s="2"/>
+      <c r="L68" s="2">
+        <v>89</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>276</v>
+        <v>202</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>277</v>
+        <v>203</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D69" s="1" t="b">
         <v>1</v>
@@ -13631,7 +13765,7 @@
         <v>128</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>22</v>
@@ -13639,17 +13773,19 @@
       <c r="K69" s="2">
         <v>87</v>
       </c>
-      <c r="L69" s="2"/>
+      <c r="L69" s="2">
+        <v>88</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D70" s="1" t="b">
         <v>1</v>
@@ -13667,7 +13803,7 @@
         <v>128</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>22</v>
@@ -13675,7 +13811,9 @@
       <c r="K70" s="2">
         <v>87</v>
       </c>
-      <c r="L70" s="2"/>
+      <c r="L70" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
@@ -13711,7 +13849,9 @@
       <c r="K71" s="2">
         <v>83</v>
       </c>
-      <c r="L71" s="2"/>
+      <c r="L71" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -13747,7 +13887,9 @@
       <c r="K72" s="2">
         <v>83</v>
       </c>
-      <c r="L72" s="2"/>
+      <c r="L72" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
@@ -13783,7 +13925,9 @@
       <c r="K73" s="2">
         <v>83</v>
       </c>
-      <c r="L73" s="2"/>
+      <c r="L73" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -13819,7 +13963,9 @@
       <c r="K74" s="2">
         <v>77</v>
       </c>
-      <c r="L74" s="2"/>
+      <c r="L74" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
@@ -13855,7 +14001,9 @@
       <c r="K75" s="2">
         <v>86</v>
       </c>
-      <c r="L75" s="2"/>
+      <c r="L75" s="2">
+        <v>88</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
@@ -13891,7 +14039,9 @@
       <c r="K76" s="2">
         <v>83</v>
       </c>
-      <c r="L76" s="2"/>
+      <c r="L76" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
@@ -13927,7 +14077,9 @@
       <c r="K77" s="2">
         <v>82</v>
       </c>
-      <c r="L77" s="2"/>
+      <c r="L77" s="2">
+        <v>82</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
@@ -13963,7 +14115,9 @@
       <c r="K78" s="2">
         <v>75</v>
       </c>
-      <c r="L78" s="2"/>
+      <c r="L78" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -13999,7 +14153,9 @@
       <c r="K79" s="2">
         <v>67</v>
       </c>
-      <c r="L79" s="2"/>
+      <c r="L79" s="2">
+        <v>67</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
@@ -14035,7 +14191,9 @@
       <c r="K80" s="2">
         <v>80</v>
       </c>
-      <c r="L80" s="2"/>
+      <c r="L80" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
@@ -14071,7 +14229,9 @@
       <c r="K81" s="2">
         <v>74</v>
       </c>
-      <c r="L81" s="2"/>
+      <c r="L81" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
@@ -14107,7 +14267,9 @@
       <c r="K82" s="2">
         <v>75</v>
       </c>
-      <c r="L82" s="2"/>
+      <c r="L82" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -14143,7 +14305,9 @@
       <c r="K83" s="2">
         <v>86</v>
       </c>
-      <c r="L83" s="2"/>
+      <c r="L83" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
@@ -14179,7 +14343,9 @@
       <c r="K84" s="2">
         <v>67</v>
       </c>
-      <c r="L84" s="2"/>
+      <c r="L84" s="2">
+        <v>67</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
@@ -14215,7 +14381,9 @@
       <c r="K85" s="2">
         <v>78</v>
       </c>
-      <c r="L85" s="2"/>
+      <c r="L85" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -14251,7 +14419,9 @@
       <c r="K86" s="2">
         <v>66</v>
       </c>
-      <c r="L86" s="2"/>
+      <c r="L86" s="2">
+        <v>66</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>

--- a/data/datasets/roster_stanford.xlsx
+++ b/data/datasets/roster_stanford.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F39232-8366-4DF4-B77F-EB57EB35CFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8D4BD4-CA48-49EB-97A3-FEDF01323B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2029" sheetId="3" r:id="rId1"/>
@@ -1305,11 +1305,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4591,9 +4603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/data/datasets/roster_stanford.xlsx
+++ b/data/datasets/roster_stanford.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8D4BD4-CA48-49EB-97A3-FEDF01323B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF7302F-38A6-4BD7-86CC-23D0745B7CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,6 @@
     <t>class</t>
   </si>
   <si>
-    <t>red_shirt</t>
-  </si>
-  <si>
     <t>position</t>
   </si>
   <si>
@@ -897,6 +894,9 @@
   </si>
   <si>
     <t>McNair</t>
+  </si>
+  <si>
+    <t>redshirt</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="first_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="last_name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="class"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="red_shirt"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="redshirt"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="position"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="group"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="secondary_group"/>
@@ -1002,7 +1002,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="first_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="last_name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="class"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="red_shirt"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="redshirt"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="position"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="group"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="secondary_group"/>
@@ -1334,63 +1334,63 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2">
         <v>80</v>
@@ -1401,34 +1401,34 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3" s="2">
         <v>80</v>
@@ -1439,34 +1439,34 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2">
         <v>67</v>
@@ -1477,34 +1477,34 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="2">
         <v>84</v>
@@ -1515,34 +1515,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="2">
         <v>83</v>
@@ -1553,34 +1553,34 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="2">
         <v>81</v>
@@ -1591,34 +1591,34 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="2">
         <v>75</v>
@@ -1629,34 +1629,34 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="2">
         <v>74</v>
@@ -1667,34 +1667,34 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="2">
         <v>68</v>
@@ -1705,34 +1705,34 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" s="2">
         <v>77</v>
@@ -1743,34 +1743,34 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="2">
         <v>78</v>
@@ -1781,34 +1781,34 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="2">
         <v>76</v>
@@ -1819,34 +1819,34 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="2">
         <v>76</v>
@@ -1857,34 +1857,34 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="2">
         <v>75</v>
@@ -1895,34 +1895,34 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="2">
         <v>75</v>
@@ -1933,34 +1933,34 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K17" s="2">
         <v>73</v>
@@ -1971,34 +1971,34 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="2">
         <v>68</v>
@@ -2009,34 +2009,34 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K19" s="2">
         <v>98</v>
@@ -2047,34 +2047,34 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="2">
         <v>79</v>
@@ -2085,34 +2085,34 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21" s="2">
         <v>73</v>
@@ -2123,34 +2123,34 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="2">
         <v>66</v>
@@ -2161,34 +2161,34 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K23" s="2">
         <v>63</v>
@@ -2199,34 +2199,34 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="K24" s="2">
         <v>91</v>
@@ -2237,34 +2237,34 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K25" s="2">
         <v>80</v>
@@ -2275,34 +2275,34 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K26" s="2">
         <v>78</v>
@@ -2313,34 +2313,34 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K27" s="2">
         <v>67</v>
@@ -2351,34 +2351,34 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K28" s="2">
         <v>87</v>
@@ -2389,34 +2389,34 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K29" s="2">
         <v>86</v>
@@ -2427,34 +2427,34 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K30" s="2">
         <v>85</v>
@@ -2465,34 +2465,34 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K31" s="2">
         <v>74</v>
@@ -2503,34 +2503,34 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K32" s="2">
         <v>85</v>
@@ -2541,34 +2541,34 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K33" s="2">
         <v>79</v>
@@ -2579,34 +2579,34 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K34" s="2">
         <v>90</v>
@@ -2617,34 +2617,34 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K35" s="2">
         <v>89</v>
@@ -2655,34 +2655,34 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K36" s="2">
         <v>75</v>
@@ -2693,34 +2693,34 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K37" s="2">
         <v>93</v>
@@ -2731,34 +2731,34 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K38" s="2">
         <v>81</v>
@@ -2769,34 +2769,34 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K39" s="2">
         <v>69</v>
@@ -2807,34 +2807,34 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K40" s="2">
         <v>65</v>
@@ -2845,34 +2845,34 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K41" s="2">
         <v>85</v>
@@ -2883,34 +2883,34 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K42" s="2">
         <v>82</v>
@@ -2921,34 +2921,34 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K43" s="2">
         <v>81</v>
@@ -2959,34 +2959,34 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K44" s="2">
         <v>69</v>
@@ -2997,34 +2997,34 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="J45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K45" s="2">
         <v>85</v>
@@ -3035,34 +3035,34 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K46" s="2">
         <v>85</v>
@@ -3073,34 +3073,34 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H47" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K47" s="2">
         <v>75</v>
@@ -3111,34 +3111,34 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K48" s="2">
         <v>75</v>
@@ -3149,34 +3149,34 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K49" s="2">
         <v>75</v>
@@ -3187,34 +3187,34 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K50" s="2">
         <v>90</v>
@@ -3225,34 +3225,34 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K51" s="2">
         <v>86</v>
@@ -3263,34 +3263,34 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K52" s="2">
         <v>86</v>
@@ -3301,34 +3301,34 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D53" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K53" s="2">
         <v>84</v>
@@ -3339,34 +3339,34 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D54" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K54" s="2">
         <v>77</v>
@@ -3377,34 +3377,34 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J55" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K55" s="2">
         <v>88</v>
@@ -3415,34 +3415,34 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K56" s="2">
         <v>81</v>
@@ -3453,34 +3453,34 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K57" s="2">
         <v>64</v>
@@ -3491,34 +3491,34 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K58" s="2">
         <v>83</v>
@@ -3529,34 +3529,34 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K59" s="2">
         <v>77</v>
@@ -3567,34 +3567,34 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K60" s="2">
         <v>76</v>
@@ -3605,34 +3605,34 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K61" s="2">
         <v>90</v>
@@ -3643,34 +3643,34 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K62" s="2">
         <v>86</v>
@@ -3681,34 +3681,34 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K63" s="2">
         <v>78</v>
@@ -3719,34 +3719,34 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D64" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K64" s="2">
         <v>70</v>
@@ -3757,34 +3757,34 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D65" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="K65" s="2">
         <v>87</v>
@@ -3795,34 +3795,34 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="J66" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K66" s="2">
         <v>86</v>
@@ -3833,34 +3833,34 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H67" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K67" s="2">
         <v>85</v>
@@ -3871,34 +3871,34 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H68" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K68" s="2">
         <v>82</v>
@@ -3909,34 +3909,34 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H69" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K69" s="2">
         <v>81</v>
@@ -3947,34 +3947,34 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D70" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H70" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K70" s="2">
         <v>80</v>
@@ -3985,34 +3985,34 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K71" s="2">
         <v>80</v>
@@ -4023,34 +4023,34 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="C72" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D72" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H72" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K72" s="2">
         <v>68</v>
@@ -4061,34 +4061,34 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="J73" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K73" s="2">
         <v>79</v>
@@ -4099,34 +4099,34 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="J74" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K74" s="2">
         <v>75</v>
@@ -4137,34 +4137,34 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D75" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="J75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K75" s="2">
         <v>75</v>
@@ -4175,34 +4175,34 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D76" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="J76" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K76" s="2">
         <v>75</v>
@@ -4213,34 +4213,34 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="C77" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="J77" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K77" s="2">
         <v>65</v>
@@ -4251,34 +4251,34 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="J78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K78" s="2">
         <v>83</v>
@@ -4289,34 +4289,34 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="J79" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K79" s="2">
         <v>81</v>
@@ -4327,34 +4327,34 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K80" s="2">
         <v>77</v>
@@ -4365,34 +4365,34 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F81" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K81" s="2">
         <v>76</v>
@@ -4403,34 +4403,34 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="C82" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K82" s="2">
         <v>74</v>
@@ -4441,34 +4441,34 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I83" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K83" s="2">
         <v>86</v>
@@ -4479,34 +4479,34 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I84" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K84" s="2">
         <v>69</v>
@@ -4517,34 +4517,34 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="C85" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D85" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I85" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K85" s="2">
         <v>64</v>
@@ -4555,34 +4555,34 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I86" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K86" s="2">
         <v>76</v>
@@ -4632,63 +4632,63 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" s="2">
         <v>87</v>
@@ -4699,34 +4699,34 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="2">
         <v>82</v>
@@ -4737,34 +4737,34 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="2">
         <v>77</v>
@@ -4775,34 +4775,34 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2">
         <v>75</v>
@@ -4813,34 +4813,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="2">
         <v>90</v>
@@ -4851,34 +4851,34 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="2">
         <v>87</v>
@@ -4889,34 +4889,34 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="2">
         <v>85</v>
@@ -4927,34 +4927,34 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="2">
         <v>77</v>
@@ -4965,34 +4965,34 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="3">
         <v>73</v>
@@ -5003,34 +5003,34 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" s="2">
         <v>84</v>
@@ -5041,34 +5041,34 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="2">
         <v>79</v>
@@ -5079,34 +5079,34 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="2">
         <v>80</v>
@@ -5117,34 +5117,34 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K14" s="2">
         <v>79</v>
@@ -5155,34 +5155,34 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="2">
         <v>78</v>
@@ -5193,34 +5193,34 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K16" s="2">
         <v>76</v>
@@ -5231,34 +5231,34 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" s="2">
         <v>68</v>
@@ -5269,34 +5269,34 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18" s="2">
         <v>68</v>
@@ -5307,34 +5307,34 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" t="s">
         <v>247</v>
       </c>
-      <c r="B19" t="s">
-        <v>248</v>
-      </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19" s="3">
         <v>66</v>
@@ -5345,34 +5345,34 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="2">
         <v>83</v>
@@ -5383,34 +5383,34 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K21" s="2">
         <v>74</v>
@@ -5421,34 +5421,34 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K22" s="2">
         <v>71</v>
@@ -5459,34 +5459,34 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23" s="2">
         <v>67</v>
@@ -5497,34 +5497,34 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K24" s="2">
         <v>66</v>
@@ -5535,34 +5535,34 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K25" s="2">
         <v>65</v>
@@ -5573,34 +5573,34 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K26" s="2">
         <v>83</v>
@@ -5611,34 +5611,34 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="K27" s="2">
         <v>83</v>
@@ -5649,34 +5649,34 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K28" s="2">
         <v>75</v>
@@ -5687,34 +5687,34 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K29" s="2">
         <v>75</v>
@@ -5725,34 +5725,34 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K30" s="2">
         <v>93</v>
@@ -5763,34 +5763,34 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K31" s="2">
         <v>86</v>
@@ -5801,34 +5801,34 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32" s="2">
         <v>79</v>
@@ -5839,34 +5839,34 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K33" s="2">
         <v>68</v>
@@ -5877,34 +5877,34 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K34" s="2">
         <v>65</v>
@@ -5915,34 +5915,34 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K35" s="2">
         <v>88</v>
@@ -5953,34 +5953,34 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K36" s="2">
         <v>81</v>
@@ -5991,34 +5991,34 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K37" s="2">
         <v>75</v>
@@ -6029,34 +6029,34 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K38" s="2">
         <v>90</v>
@@ -6067,34 +6067,34 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K39" s="2">
         <v>78</v>
@@ -6105,34 +6105,34 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K40" s="2">
         <v>74</v>
@@ -6143,34 +6143,34 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K41" s="2">
         <v>68</v>
@@ -6181,34 +6181,34 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" t="s">
         <v>264</v>
       </c>
-      <c r="B42" t="s">
-        <v>265</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K42" s="2">
         <v>64</v>
@@ -6219,34 +6219,34 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K43" s="2">
         <v>88</v>
@@ -6257,34 +6257,34 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K44" s="2">
         <v>86</v>
@@ -6295,34 +6295,34 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K45" s="2">
         <v>92</v>
@@ -6333,34 +6333,34 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J46" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K46" s="2">
         <v>83</v>
@@ -6371,34 +6371,34 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K47" s="2">
         <v>80</v>
@@ -6409,34 +6409,34 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K48" s="2">
         <v>78</v>
@@ -6447,34 +6447,34 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K49" s="2">
         <v>88</v>
@@ -6485,34 +6485,34 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="J50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K50" s="2">
         <v>86</v>
@@ -6523,34 +6523,34 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H51" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K51" s="2">
         <v>80</v>
@@ -6561,34 +6561,34 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J52" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K52" s="2">
         <v>73</v>
@@ -6599,34 +6599,34 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" t="s">
         <v>270</v>
       </c>
-      <c r="B53" t="s">
-        <v>271</v>
-      </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K53" s="2">
         <v>73</v>
@@ -6637,34 +6637,34 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K54" s="2">
         <v>90</v>
@@ -6675,34 +6675,34 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K55" s="2">
         <v>89</v>
@@ -6713,34 +6713,34 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K56" s="2">
         <v>83</v>
@@ -6751,34 +6751,34 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K57" s="2">
         <v>76</v>
@@ -6789,34 +6789,34 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" t="s">
         <v>274</v>
       </c>
-      <c r="B58" t="s">
-        <v>275</v>
-      </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K58" s="2">
         <v>71</v>
@@ -6827,34 +6827,34 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K59" s="2">
         <v>88</v>
@@ -6865,34 +6865,34 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="J60" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K60" s="2">
         <v>76</v>
@@ -6903,34 +6903,34 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K61" s="2">
         <v>75</v>
@@ -6941,34 +6941,34 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K62" s="2">
         <v>86</v>
@@ -6979,34 +6979,34 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K63" s="2">
         <v>84</v>
@@ -7017,34 +7017,34 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="K64" s="2">
         <v>81</v>
@@ -7055,34 +7055,34 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K65" s="2">
         <v>88</v>
@@ -7093,34 +7093,34 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K66" s="2">
         <v>80</v>
@@ -7131,34 +7131,34 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H67" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K67" s="2">
         <v>76</v>
@@ -7169,34 +7169,34 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="J68" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K68" s="2">
         <v>88</v>
@@ -7207,34 +7207,34 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="J69" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K69" s="2">
         <v>87</v>
@@ -7245,34 +7245,34 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H70" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K70" s="2">
         <v>87</v>
@@ -7283,34 +7283,34 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K71" s="2">
         <v>83</v>
@@ -7321,34 +7321,34 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H72" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K72" s="2">
         <v>83</v>
@@ -7359,34 +7359,34 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D73" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H73" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K73" s="2">
         <v>83</v>
@@ -7397,34 +7397,34 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H74" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K74" s="2">
         <v>77</v>
@@ -7435,34 +7435,34 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="J75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K75" s="2">
         <v>86</v>
@@ -7473,34 +7473,34 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D76" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="J76" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K76" s="2">
         <v>83</v>
@@ -7511,34 +7511,34 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D77" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="J77" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K77" s="2">
         <v>82</v>
@@ -7549,34 +7549,34 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="C78" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="J78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K78" s="2">
         <v>75</v>
@@ -7587,34 +7587,34 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>285</v>
+      </c>
+      <c r="B79" t="s">
         <v>286</v>
       </c>
-      <c r="B79" t="s">
-        <v>287</v>
-      </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I79" t="s">
         <v>140</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I79" t="s">
-        <v>141</v>
-      </c>
       <c r="J79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K79" s="2">
         <v>67</v>
@@ -7625,34 +7625,34 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="J80" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K80" s="2">
         <v>80</v>
@@ -7663,34 +7663,34 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D81" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K81" s="2">
         <v>74</v>
@@ -7701,34 +7701,34 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="C82" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K82" s="2">
         <v>75</v>
@@ -7739,34 +7739,34 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D83" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I83" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K83" s="2">
         <v>86</v>
@@ -7777,34 +7777,34 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I84" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K84" s="2">
         <v>67</v>
@@ -7815,34 +7815,34 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F85" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I85" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K85" s="2">
         <v>78</v>
@@ -7853,34 +7853,34 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>289</v>
+      </c>
+      <c r="B86" t="s">
         <v>290</v>
       </c>
-      <c r="B86" t="s">
-        <v>291</v>
-      </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K86" s="2">
         <v>66</v>
